--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BCANCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BCANCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>BCANCA</t>
-  </si>
-  <si>
-    <t>16.5525054504466</t>
-  </si>
-  <si>
-    <t>5.30191207206368</t>
-  </si>
-  <si>
-    <t>3.37726570057557</t>
-  </si>
-  <si>
-    <t>3.11464764980361</t>
-  </si>
-  <si>
-    <t>1.86415558038221</t>
-  </si>
-  <si>
-    <t>1.76188281730762</t>
-  </si>
-  <si>
-    <t>1.29322186665392</t>
-  </si>
-  <si>
-    <t>0.891847542083122</t>
-  </si>
-  <si>
-    <t>0.311599997483665</t>
-  </si>
-  <si>
-    <t>0.282984108467573</t>
-  </si>
-  <si>
-    <t>-0.010387088389166</t>
-  </si>
-  <si>
-    <t>-0.323743453467038</t>
-  </si>
-  <si>
-    <t>-0.835469968155673</t>
-  </si>
-  <si>
-    <t>-1.01360495721915</t>
-  </si>
-  <si>
-    <t>-1.34973071690437</t>
-  </si>
-  <si>
-    <t>-1.67112491053818</t>
-  </si>
-  <si>
-    <t>-2.15050005909086</t>
-  </si>
-  <si>
-    <t>-2.32765754212489</t>
-  </si>
-  <si>
-    <t>-2.69418382120981</t>
-  </si>
-  <si>
-    <t>-2.96878003619127</t>
-  </si>
-  <si>
-    <t>-3.49968827430654</t>
-  </si>
-  <si>
-    <t>-3.70903559396631</t>
-  </si>
-  <si>
-    <t>-4.00619878282981</t>
-  </si>
-  <si>
-    <t>-4.3316050719043</t>
-  </si>
-  <si>
-    <t>-4.84895364527227</t>
-  </si>
-  <si>
-    <t>-5.03703482637397</t>
-  </si>
-  <si>
-    <t>-5.35476629130865</t>
-  </si>
-  <si>
-    <t>-5.58942035370798</t>
-  </si>
-  <si>
-    <t>-6.23562782048212</t>
-  </si>
-  <si>
-    <t>-6.40154017454495</t>
-  </si>
-  <si>
-    <t>-6.7149622318248</t>
-  </si>
-  <si>
-    <t>-7.06196508535084</t>
-  </si>
-  <si>
-    <t>-7.52069602435926</t>
-  </si>
-  <si>
-    <t>-7.70637064922921</t>
-  </si>
-  <si>
-    <t>-8.01658289490627</t>
-  </si>
-  <si>
-    <t>-8.38108198742466</t>
-  </si>
-  <si>
-    <t>-8.88664943887374</t>
-  </si>
-  <si>
-    <t>-9.01298364346953</t>
-  </si>
-  <si>
-    <t>-9.39580868529781</t>
-  </si>
-  <si>
-    <t>-9.73518173041579</t>
-  </si>
-  <si>
-    <t>-10.2008176574172</t>
-  </si>
-  <si>
-    <t>-10.3931517508764</t>
-  </si>
-  <si>
-    <t>-10.7136831443399</t>
-  </si>
-  <si>
-    <t>-11.067088973144</t>
-  </si>
-  <si>
-    <t>-11.4961489953124</t>
-  </si>
-  <si>
-    <t>65.552306331619</t>
-  </si>
-  <si>
-    <t>8.03378328859591</t>
-  </si>
-  <si>
-    <t>-0.457979508817623</t>
-  </si>
-  <si>
-    <t>4.3660930356304</t>
-  </si>
-  <si>
-    <t>18.7526725855781</t>
-  </si>
-  <si>
-    <t>-8.74803849316689</t>
-  </si>
-  <si>
-    <t>-6.23149262959371</t>
-  </si>
-  <si>
-    <t>1.85236682651174</t>
-  </si>
-  <si>
-    <t>16.1327269670116</t>
-  </si>
-  <si>
-    <t>-9.50837590466359</t>
-  </si>
-  <si>
-    <t>-7.40204577653047</t>
-  </si>
-  <si>
-    <t>2.72422785764633</t>
-  </si>
-  <si>
-    <t>15.8908162889732</t>
-  </si>
-  <si>
-    <t>-8.66985527485845</t>
-  </si>
-  <si>
-    <t>-7.96115251405648</t>
-  </si>
-  <si>
-    <t>1.39187968644731</t>
-  </si>
-  <si>
-    <t>15.9157111574613</t>
-  </si>
-  <si>
-    <t>-10.6908169849558</t>
-  </si>
-  <si>
-    <t>-7.16380321496159</t>
-  </si>
-  <si>
-    <t>3.98820519618155</t>
-  </si>
-  <si>
-    <t>14.8992273329256</t>
-  </si>
-  <si>
-    <t>-13.0124747635173</t>
-  </si>
-  <si>
-    <t>-7.84459018647787</t>
-  </si>
-  <si>
-    <t>1.66289717028064</t>
-  </si>
-  <si>
-    <t>15.0406436149585</t>
-  </si>
-  <si>
-    <t>-13.2178485953504</t>
-  </si>
-  <si>
-    <t>-10.1731630869954</t>
-  </si>
-  <si>
-    <t>3.31875077022364</t>
-  </si>
-  <si>
-    <t>16.4343240382065</t>
-  </si>
-  <si>
-    <t>-13.3587911128928</t>
-  </si>
-  <si>
-    <t>-10.6589783599351</t>
-  </si>
-  <si>
-    <t>3.82160634264844</t>
-  </si>
-  <si>
-    <t>87.3754791943292</t>
-  </si>
-  <si>
-    <t>-2.77199481641102</t>
-  </si>
-  <si>
-    <t>-19.4840138683471</t>
-  </si>
-  <si>
-    <t>9.81078368901626</t>
-  </si>
-  <si>
-    <t>17.8184904064267</t>
-  </si>
-  <si>
-    <t>-18.5580627482034</t>
-  </si>
-  <si>
-    <t>-22.1600667590118</t>
+    <t>0.47416978414924</t>
+  </si>
+  <si>
+    <t>-173.90696475627</t>
+  </si>
+  <si>
+    <t>-175.176269285099</t>
+  </si>
+  <si>
+    <t>-110.850290167344</t>
+  </si>
+  <si>
+    <t>-235.699139018893</t>
+  </si>
+  <si>
+    <t>-192.809541948193</t>
+  </si>
+  <si>
+    <t>-74.2476937335144</t>
+  </si>
+  <si>
+    <t>-99.5380373018473</t>
+  </si>
+  <si>
+    <t>-107.744799856465</t>
+  </si>
+  <si>
+    <t>-172.014760396605</t>
+  </si>
+  <si>
+    <t>-169.551758275765</t>
+  </si>
+  <si>
+    <t>-168.596151956732</t>
+  </si>
+  <si>
+    <t>-163.871141897589</t>
+  </si>
+  <si>
+    <t>-134.422048235571</t>
+  </si>
+  <si>
+    <t>-189.972039298591</t>
+  </si>
+  <si>
+    <t>-112.520740051862</t>
+  </si>
+  <si>
+    <t>-184.852744203597</t>
+  </si>
+  <si>
+    <t>-150.276499741128</t>
+  </si>
+  <si>
+    <t>-66.0885980974715</t>
+  </si>
+  <si>
+    <t>-223.819259629293</t>
+  </si>
+  <si>
+    <t>-63.1402953101076</t>
+  </si>
+  <si>
+    <t>-288.120842825778</t>
+  </si>
+  <si>
+    <t>20.3590082792259</t>
+  </si>
+  <si>
+    <t>-284.979659612482</t>
+  </si>
+  <si>
+    <t>-90.7509262132667</t>
+  </si>
+  <si>
+    <t>-251.999653014037</t>
+  </si>
+  <si>
+    <t>183.197724520258</t>
+  </si>
+  <si>
+    <t>-452.643408952859</t>
+  </si>
+  <si>
+    <t>90.5653581781407</t>
+  </si>
+  <si>
+    <t>-414.699521397191</t>
+  </si>
+  <si>
+    <t>67.1685934585719</t>
+  </si>
+  <si>
+    <t>-195.056752390143</t>
+  </si>
+  <si>
+    <t>-213.328056213947</t>
+  </si>
+  <si>
+    <t>-90.6373502711579</t>
+  </si>
+  <si>
+    <t>-150.84498316153</t>
+  </si>
+  <si>
+    <t>-164.733088200448</t>
+  </si>
+  <si>
+    <t>-188.843740494206</t>
+  </si>
+  <si>
+    <t>-154.035432051226</t>
+  </si>
+  <si>
+    <t>-356.025536650683</t>
+  </si>
+  <si>
+    <t>-113.351136553516</t>
+  </si>
+  <si>
+    <t>-175.799848353947</t>
+  </si>
+  <si>
+    <t>-46.7008191248487</t>
+  </si>
+  <si>
+    <t>-236.260437805144</t>
+  </si>
+  <si>
+    <t>-69.7729357979015</t>
+  </si>
+  <si>
+    <t>-310.174810297711</t>
+  </si>
+  <si>
+    <t>-88.0027358467985</t>
+  </si>
+  <si>
+    <t>-281.105984874453</t>
+  </si>
+  <si>
+    <t>71.3912432176949</t>
+  </si>
+  <si>
+    <t>-487.473600539073</t>
+  </si>
+  <si>
+    <t>158.122634257149</t>
+  </si>
+  <si>
+    <t>-405.43566111267</t>
+  </si>
+  <si>
+    <t>437.172583282291</t>
+  </si>
+  <si>
+    <t>-465.931796017368</t>
+  </si>
+  <si>
+    <t>278.828729574716</t>
+  </si>
+  <si>
+    <t>-651.953393008745</t>
+  </si>
+  <si>
+    <t>323.216352325426</t>
+  </si>
+  <si>
+    <t>-391.945262228068</t>
+  </si>
+  <si>
+    <t>103.985699125916</t>
+  </si>
+  <si>
+    <t>-301.867453435935</t>
+  </si>
+  <si>
+    <t>-37.9482243246266</t>
+  </si>
+  <si>
+    <t>-195.985541625478</t>
+  </si>
+  <si>
+    <t>-68.434431094784</t>
+  </si>
+  <si>
+    <t>-203.716217210929</t>
+  </si>
+  <si>
+    <t>-235.348655542807</t>
+  </si>
+  <si>
+    <t>-57.8182331978555</t>
+  </si>
+  <si>
+    <t>-203.49798564055</t>
+  </si>
+  <si>
+    <t>-166.364596473164</t>
+  </si>
+  <si>
+    <t>-282.378526494105</t>
+  </si>
+  <si>
+    <t>-56.8019298156123</t>
+  </si>
+  <si>
+    <t>-156.057854328109</t>
+  </si>
+  <si>
+    <t>-284.768244932343</t>
+  </si>
+  <si>
+    <t>-39.9343716771064</t>
+  </si>
+  <si>
+    <t>-249.530243305116</t>
+  </si>
+  <si>
+    <t>-32.2796036061527</t>
+  </si>
+  <si>
+    <t>-192.275031550944</t>
+  </si>
+  <si>
+    <t>-697.634618394852</t>
+  </si>
+  <si>
+    <t>510.014462585867</t>
+  </si>
+  <si>
+    <t>11857.7955382603</t>
+  </si>
+  <si>
+    <t>-46.9440366983799</t>
+  </si>
+  <si>
+    <t>3146.08263175697</t>
+  </si>
+  <si>
+    <t>800.943974358801</t>
+  </si>
+  <si>
+    <t>-4262.318815377</t>
+  </si>
+  <si>
+    <t>-170.993385957507</t>
+  </si>
+  <si>
+    <t>-103.727243730726</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
